--- a/Code/Results/Cases/Case_6_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_36/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.986594045058155</v>
+        <v>1.086287118486183</v>
       </c>
       <c r="C2">
-        <v>0.7568205209355767</v>
+        <v>0.1666795009165725</v>
       </c>
       <c r="D2">
-        <v>0.008667029683586236</v>
+        <v>0.0503125215997926</v>
       </c>
       <c r="E2">
-        <v>1.442818331056486</v>
+        <v>1.389397457412628</v>
       </c>
       <c r="F2">
-        <v>1.481170448466528</v>
+        <v>0.5272620599791651</v>
       </c>
       <c r="G2">
-        <v>0.0007682712290611141</v>
+        <v>0.000793636372353699</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8431108347518546</v>
+        <v>1.155745620854162</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6006729330908414</v>
+        <v>0.6255993209243154</v>
       </c>
       <c r="O2">
-        <v>1.131026217924031</v>
+        <v>1.515226328229971</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.573567220888947</v>
+        <v>0.9424937735770982</v>
       </c>
       <c r="C3">
-        <v>0.6529083096789066</v>
+        <v>0.1483310215604092</v>
       </c>
       <c r="D3">
-        <v>0.01000352306961272</v>
+        <v>0.04557326088545466</v>
       </c>
       <c r="E3">
-        <v>1.231724491263904</v>
+        <v>1.194007065443429</v>
       </c>
       <c r="F3">
-        <v>1.314033483014839</v>
+        <v>0.4908262399428835</v>
       </c>
       <c r="G3">
-        <v>0.0007763150646047941</v>
+        <v>0.000797663694321357</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7262435924600652</v>
+        <v>1.004788457498933</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6442827969353857</v>
+        <v>0.6648395471395312</v>
       </c>
       <c r="O3">
-        <v>1.008337195897553</v>
+        <v>1.443074760536206</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.323794702823079</v>
+        <v>0.8545645634525272</v>
       </c>
       <c r="C4">
-        <v>0.5900276291635578</v>
+        <v>0.1370778588742638</v>
       </c>
       <c r="D4">
-        <v>0.01087501509699695</v>
+        <v>0.04264792598036848</v>
       </c>
       <c r="E4">
-        <v>1.105663247761157</v>
+        <v>1.076096286594819</v>
       </c>
       <c r="F4">
-        <v>1.215368189743714</v>
+        <v>0.4695603219768643</v>
       </c>
       <c r="G4">
-        <v>0.000781363611571365</v>
+        <v>0.0008002108474370884</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6555534487936541</v>
+        <v>0.9123927478216558</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6726788883297168</v>
+        <v>0.6899815593200875</v>
       </c>
       <c r="O4">
-        <v>0.9362291451779612</v>
+        <v>1.402340687360748</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.22282146330366</v>
+        <v>0.8188045212526447</v>
       </c>
       <c r="C5">
-        <v>0.5645939280125276</v>
+        <v>0.132492916686104</v>
       </c>
       <c r="D5">
-        <v>0.01124165928440934</v>
+        <v>0.04145186290629255</v>
       </c>
       <c r="E5">
-        <v>1.055039599754352</v>
+        <v>1.028486959679626</v>
       </c>
       <c r="F5">
-        <v>1.176043611121443</v>
+        <v>0.4611538458734543</v>
       </c>
       <c r="G5">
-        <v>0.0007834505289473913</v>
+        <v>0.0008012680367970611</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6269712526389668</v>
+        <v>0.8747947261164484</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6846337804311347</v>
+        <v>0.700483023554343</v>
       </c>
       <c r="O5">
-        <v>0.9075642473465422</v>
+        <v>1.386582005612041</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.206099769669493</v>
+        <v>0.8128704043356834</v>
       </c>
       <c r="C6">
-        <v>0.5603810744396753</v>
+        <v>0.1317315721857852</v>
       </c>
       <c r="D6">
-        <v>0.01130320063641888</v>
+        <v>0.04125301558073602</v>
       </c>
       <c r="E6">
-        <v>1.046674772443183</v>
+        <v>1.020605903492793</v>
       </c>
       <c r="F6">
-        <v>1.16956398924475</v>
+        <v>0.459773113013803</v>
       </c>
       <c r="G6">
-        <v>0.000783798903188069</v>
+        <v>0.0008014447562964492</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6222375707199177</v>
+        <v>0.8685543154328457</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6866413713245585</v>
+        <v>0.7022420212798097</v>
       </c>
       <c r="O6">
-        <v>0.9028454402742199</v>
+        <v>1.384014489623581</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.322429847890419</v>
+        <v>0.8540820242020857</v>
       </c>
       <c r="C7">
-        <v>0.5896839006286996</v>
+        <v>0.1370160245229641</v>
       </c>
       <c r="D7">
-        <v>0.01087991478807204</v>
+        <v>0.04263181162420437</v>
       </c>
       <c r="E7">
-        <v>1.104977674098464</v>
+        <v>1.07545252613042</v>
       </c>
       <c r="F7">
-        <v>1.214834413521956</v>
+        <v>0.4694459220299834</v>
       </c>
       <c r="G7">
-        <v>0.0007813916340150125</v>
+        <v>0.0008002250266973257</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.655167124468484</v>
+        <v>0.9118854941468442</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6728385944040873</v>
+        <v>0.690122159532195</v>
       </c>
       <c r="O7">
-        <v>0.9358397599767585</v>
+        <v>1.402124827822064</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.843292002243402</v>
+        <v>1.036620602092086</v>
       </c>
       <c r="C8">
-        <v>0.7207741331302202</v>
+        <v>0.1603487496770413</v>
       </c>
       <c r="D8">
-        <v>0.009116459172352265</v>
+        <v>0.04868156421363068</v>
       </c>
       <c r="E8">
-        <v>1.369202933815785</v>
+        <v>1.321550603949362</v>
       </c>
       <c r="F8">
-        <v>1.422648808102466</v>
+        <v>0.5144579789784984</v>
       </c>
       <c r="G8">
-        <v>0.0007710232842846755</v>
+        <v>0.0007950098731970784</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8025659052508303</v>
+        <v>1.10362261226183</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6153583257224469</v>
+        <v>0.638906982393993</v>
       </c>
       <c r="O8">
-        <v>1.087996437486154</v>
+        <v>1.489573131735995</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.902811106765967</v>
+        <v>1.398368735696209</v>
       </c>
       <c r="C9">
-        <v>0.9872711927529281</v>
+        <v>0.2063278077841488</v>
       </c>
       <c r="D9">
-        <v>0.006130944308033293</v>
+        <v>0.06042792821981635</v>
       </c>
       <c r="E9">
-        <v>1.923143428940762</v>
+        <v>1.824359546649177</v>
       </c>
       <c r="F9">
-        <v>1.867319292976788</v>
+        <v>0.6123982719627463</v>
       </c>
       <c r="G9">
-        <v>0.0007514568622454254</v>
+        <v>0.0007853484129969557</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.102314129474308</v>
+        <v>1.482911382917649</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.516704007190171</v>
+        <v>0.5471608867158377</v>
       </c>
       <c r="O9">
-        <v>1.4165858161481</v>
+        <v>1.692091934591986</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.716917432548996</v>
+        <v>1.667880540319942</v>
       </c>
       <c r="C10">
-        <v>1.192243425064646</v>
+        <v>0.2404339262681106</v>
       </c>
       <c r="D10">
-        <v>0.004342544072224896</v>
+        <v>0.06899506989018533</v>
       </c>
       <c r="E10">
-        <v>2.364574835204152</v>
+        <v>2.212109908889417</v>
       </c>
       <c r="F10">
-        <v>2.225879638319498</v>
+        <v>0.6916026359871807</v>
       </c>
       <c r="G10">
-        <v>0.0007373815454726107</v>
+        <v>0.0007785576633293951</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.332663149882393</v>
+        <v>1.765074451052527</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4547365021823424</v>
+        <v>0.4855963042290254</v>
       </c>
       <c r="O10">
-        <v>1.68386015546524</v>
+        <v>1.863912773097638</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.098363784325386</v>
+        <v>1.79165011129075</v>
       </c>
       <c r="C11">
-        <v>1.288414615408215</v>
+        <v>0.2560678752331</v>
       </c>
       <c r="D11">
-        <v>0.003650841285078421</v>
+        <v>0.0728809323394799</v>
       </c>
       <c r="E11">
-        <v>2.576425901278768</v>
+        <v>2.394026409087374</v>
       </c>
       <c r="F11">
-        <v>2.398390264832273</v>
+        <v>0.7295386899365326</v>
       </c>
       <c r="G11">
-        <v>0.000730998587134624</v>
+        <v>0.0007755260516367047</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.440623074829844</v>
+        <v>1.894566487605914</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4293504102385484</v>
+        <v>0.4589898004262709</v>
       </c>
       <c r="O11">
-        <v>1.813068580699934</v>
+        <v>1.948087239275992</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.244738804312021</v>
+        <v>1.838718101881767</v>
       </c>
       <c r="C12">
-        <v>1.325347432700823</v>
+        <v>0.2620095540327156</v>
       </c>
       <c r="D12">
-        <v>0.003410074346575698</v>
+        <v>0.07435094302059042</v>
       </c>
       <c r="E12">
-        <v>2.658607571358303</v>
+        <v>2.463854859325508</v>
       </c>
       <c r="F12">
-        <v>2.465315413623784</v>
+        <v>0.7442083736106326</v>
       </c>
       <c r="G12">
-        <v>0.0007285798846796272</v>
+        <v>0.0007743855021963486</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.482058276430081</v>
+        <v>1.943798532922187</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4201931477054757</v>
+        <v>0.4491281450785838</v>
       </c>
       <c r="O12">
-        <v>1.863294250572309</v>
+        <v>1.980919320842361</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.213122596112953</v>
+        <v>1.828571780452336</v>
       </c>
       <c r="C13">
-        <v>1.317368714726683</v>
+        <v>0.2607288791144668</v>
       </c>
       <c r="D13">
-        <v>0.00346091964435935</v>
+        <v>0.07403441319684845</v>
       </c>
       <c r="E13">
-        <v>2.640814452417928</v>
+        <v>2.448771698281263</v>
       </c>
       <c r="F13">
-        <v>2.450826367323344</v>
+        <v>0.7410349594530459</v>
       </c>
       <c r="G13">
-        <v>0.0007291009473537949</v>
+        <v>0.0007746308221568145</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.473108140750796</v>
+        <v>1.933186242044883</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4221441143478231</v>
+        <v>0.4512423179562437</v>
       </c>
       <c r="O13">
-        <v>1.852415984297792</v>
+        <v>1.973804212999823</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.110365365726864</v>
+        <v>1.795518242146414</v>
       </c>
       <c r="C14">
-        <v>1.291442184211917</v>
+        <v>0.2565562443669762</v>
       </c>
       <c r="D14">
-        <v>0.003630585275888443</v>
+        <v>0.07300189975692462</v>
       </c>
       <c r="E14">
-        <v>2.583145393489048</v>
+        <v>2.399751485202103</v>
       </c>
       <c r="F14">
-        <v>2.403862620120677</v>
+        <v>0.7307392961730841</v>
       </c>
       <c r="G14">
-        <v>0.0007307996599814626</v>
+        <v>0.0007754320734537488</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.444020273793114</v>
+        <v>1.898612703850318</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4285875654398126</v>
+        <v>0.4581741194073734</v>
       </c>
       <c r="O14">
-        <v>1.817173403312708</v>
+        <v>1.950768612830956</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.047685716980141</v>
+        <v>1.775298909412186</v>
       </c>
       <c r="C15">
-        <v>1.275631556937299</v>
+        <v>0.2540033147028566</v>
       </c>
       <c r="D15">
-        <v>0.003737388693854982</v>
+        <v>0.07236926737802918</v>
       </c>
       <c r="E15">
-        <v>2.548088750962123</v>
+        <v>2.369852326900258</v>
       </c>
       <c r="F15">
-        <v>2.375312281704112</v>
+        <v>0.7244734518605753</v>
       </c>
       <c r="G15">
-        <v>0.0007318398136761927</v>
+        <v>0.0007759238084879832</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.426278306767529</v>
+        <v>1.877462004744842</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4325954556492064</v>
+        <v>0.4624482576972408</v>
       </c>
       <c r="O15">
-        <v>1.795761795624742</v>
+        <v>1.936786171456788</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.6922396720081</v>
+        <v>1.659818003572184</v>
       </c>
       <c r="C16">
-        <v>1.186024984405378</v>
+        <v>0.2394149639284109</v>
       </c>
       <c r="D16">
-        <v>0.004390494208524665</v>
+        <v>0.06874090368901165</v>
       </c>
       <c r="E16">
-        <v>2.350982051678145</v>
+        <v>2.200344513844257</v>
       </c>
       <c r="F16">
-        <v>2.214815035795326</v>
+        <v>0.6891642819435049</v>
       </c>
       <c r="G16">
-        <v>0.0007377987225785088</v>
+        <v>0.0007787568759271237</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.325679474820049</v>
+        <v>1.756637426212507</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4564562681021158</v>
+        <v>0.4873643000714298</v>
       </c>
       <c r="O16">
-        <v>1.67558590995921</v>
+        <v>1.858540465777764</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.477249204375312</v>
+        <v>1.589294518435253</v>
       </c>
       <c r="C17">
-        <v>1.131866005683804</v>
+        <v>0.2304988785423916</v>
       </c>
       <c r="D17">
-        <v>0.004824716406772289</v>
+        <v>0.06651221298121612</v>
       </c>
       <c r="E17">
-        <v>2.233132564422064</v>
+        <v>2.097870764847315</v>
       </c>
       <c r="F17">
-        <v>2.118926211359636</v>
+        <v>0.6680118850427021</v>
       </c>
       <c r="G17">
-        <v>0.0007414564775779953</v>
+        <v>0.0007805090497492111</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.264841970686305</v>
+        <v>1.682828585657546</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4718469901869042</v>
+        <v>0.5030164350290807</v>
       </c>
       <c r="O17">
-        <v>1.603947264746651</v>
+        <v>1.812142275982467</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.354614807577605</v>
+        <v>1.548839105719452</v>
       </c>
       <c r="C18">
-        <v>1.100984337277453</v>
+        <v>0.225381486821604</v>
       </c>
       <c r="D18">
-        <v>0.005085679555962841</v>
+        <v>0.06522924852028211</v>
       </c>
       <c r="E18">
-        <v>2.16636190568228</v>
+        <v>2.039441064884613</v>
       </c>
       <c r="F18">
-        <v>2.064641246571156</v>
+        <v>0.6560229922470739</v>
       </c>
       <c r="G18">
-        <v>0.0007435625107783032</v>
+        <v>0.0007815223224566416</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.230141841938661</v>
+        <v>1.640480327741557</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4809595559980337</v>
+        <v>0.5121500578503357</v>
       </c>
       <c r="O18">
-        <v>1.563446398466326</v>
+        <v>1.786015147880164</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.313259253076751</v>
+        <v>1.535159212761585</v>
       </c>
       <c r="C19">
-        <v>1.090571962527605</v>
+        <v>0.2236505742343127</v>
       </c>
       <c r="D19">
-        <v>0.005175863905769518</v>
+        <v>0.06479466872160344</v>
       </c>
       <c r="E19">
-        <v>2.143918420931882</v>
+        <v>2.019741293795548</v>
       </c>
       <c r="F19">
-        <v>2.04640343926377</v>
+        <v>0.6519933558148949</v>
       </c>
       <c r="G19">
-        <v>0.0007442760778819604</v>
+        <v>0.0007818663621381322</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.218440432600815</v>
+        <v>1.626158951353204</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4840881383985831</v>
+        <v>0.5152646718740315</v>
       </c>
       <c r="O19">
-        <v>1.549848790104321</v>
+        <v>1.777262433014272</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.500027253577457</v>
+        <v>1.596790486583672</v>
       </c>
       <c r="C20">
-        <v>1.137602838401506</v>
+        <v>0.2314468525205484</v>
       </c>
       <c r="D20">
-        <v>0.004777308598584717</v>
+        <v>0.06674957166259077</v>
       </c>
       <c r="E20">
-        <v>2.245570527012006</v>
+        <v>2.108725437103075</v>
       </c>
       <c r="F20">
-        <v>2.129042268769837</v>
+        <v>0.670245023570601</v>
       </c>
       <c r="G20">
-        <v>0.0007410669067821063</v>
+        <v>0.0007803219675278727</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.271287356481977</v>
+        <v>1.69067460424202</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4701813338347733</v>
+        <v>0.5013366014343326</v>
       </c>
       <c r="O20">
-        <v>1.611499132541311</v>
+        <v>1.817022854240207</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.140492353393256</v>
+        <v>1.805221198588271</v>
       </c>
       <c r="C21">
-        <v>1.29904262969302</v>
+        <v>0.2577812293550892</v>
       </c>
       <c r="D21">
-        <v>0.003580142846196566</v>
+        <v>0.07330521288588443</v>
       </c>
       <c r="E21">
-        <v>2.600027711756667</v>
+        <v>2.414123127958206</v>
       </c>
       <c r="F21">
-        <v>2.41761142899216</v>
+        <v>0.7337548744380342</v>
       </c>
       <c r="G21">
-        <v>0.0007303007904429674</v>
+        <v>0.0007751965310836207</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.452548218503097</v>
+        <v>1.908762184743694</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4266821293204615</v>
+        <v>0.4561321787606325</v>
       </c>
       <c r="O21">
-        <v>1.827488022761898</v>
+        <v>1.957507972485786</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.5705182778741</v>
+        <v>1.94262022605065</v>
       </c>
       <c r="C22">
-        <v>1.407610449187871</v>
+        <v>0.2751196283298043</v>
       </c>
       <c r="D22">
-        <v>0.002923417669759232</v>
+        <v>0.07758115117661646</v>
       </c>
       <c r="E22">
-        <v>2.843331819890622</v>
+        <v>2.619282328032952</v>
       </c>
       <c r="F22">
-        <v>2.615676210975067</v>
+        <v>0.7770509420066105</v>
       </c>
       <c r="G22">
-        <v>0.0007232524070340659</v>
+        <v>0.0007718897829704203</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.574294509905314</v>
+        <v>2.052456559266574</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4009415824246005</v>
+        <v>0.4278403368451498</v>
       </c>
       <c r="O22">
-        <v>1.976330466446214</v>
+        <v>2.054950928798178</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.339832715486352</v>
+        <v>1.869168892071542</v>
       </c>
       <c r="C23">
-        <v>1.349350390926645</v>
+        <v>0.2658525779129519</v>
       </c>
       <c r="D23">
-        <v>0.003260996189225374</v>
+        <v>0.07529973065074813</v>
       </c>
       <c r="E23">
-        <v>2.712266694802636</v>
+        <v>2.509222740254046</v>
       </c>
       <c r="F23">
-        <v>2.509005676096052</v>
+        <v>0.7537686568738735</v>
       </c>
       <c r="G23">
-        <v>0.0007270170686450413</v>
+        <v>0.0007736510117818088</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.508979353314174</v>
+        <v>1.975646078118103</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4144138932028341</v>
+        <v>0.4428212985643616</v>
       </c>
       <c r="O23">
-        <v>1.896111756961815</v>
+        <v>2.002395936887524</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.489726311479046</v>
+        <v>1.593401283006017</v>
       </c>
       <c r="C24">
-        <v>1.135008428748819</v>
+        <v>0.2310182470680502</v>
       </c>
       <c r="D24">
-        <v>0.004798706664931096</v>
+        <v>0.06664226698622144</v>
       </c>
       <c r="E24">
-        <v>2.239944290413646</v>
+        <v>2.103816543561237</v>
       </c>
       <c r="F24">
-        <v>2.124466192211557</v>
+        <v>0.669234888447491</v>
       </c>
       <c r="G24">
-        <v>0.0007412430216849897</v>
+        <v>0.0007804065289024955</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.268372544458671</v>
+        <v>1.687127155609375</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4709335579258891</v>
+        <v>0.5020956346267806</v>
       </c>
       <c r="O24">
-        <v>1.608082813748368</v>
+        <v>1.814814645389873</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.610921566554623</v>
+        <v>1.299960542379864</v>
       </c>
       <c r="C25">
-        <v>0.9138432040595035</v>
+        <v>0.1938469138983265</v>
       </c>
       <c r="D25">
-        <v>0.006877270985277129</v>
+        <v>0.05726193136882785</v>
       </c>
       <c r="E25">
-        <v>1.768278756270433</v>
+        <v>1.685590873949991</v>
       </c>
       <c r="F25">
-        <v>1.742172432317034</v>
+        <v>0.5847343975629826</v>
       </c>
       <c r="G25">
-        <v>0.0007566839278700332</v>
+        <v>0.0007879052190755108</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.01973731462779</v>
+        <v>1.379804884225734</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5417030237126568</v>
+        <v>0.5709969227974847</v>
       </c>
       <c r="O25">
-        <v>1.323753591385568</v>
+        <v>1.633578868318807</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.086287118486183</v>
+        <v>0.9083802726520389</v>
       </c>
       <c r="C2">
-        <v>0.1666795009165725</v>
+        <v>0.2302728960897156</v>
       </c>
       <c r="D2">
-        <v>0.0503125215997926</v>
+        <v>0.07134751822604812</v>
       </c>
       <c r="E2">
-        <v>1.389397457412628</v>
+        <v>1.389332916401443</v>
       </c>
       <c r="F2">
-        <v>0.5272620599791651</v>
+        <v>0.3563492789031955</v>
       </c>
       <c r="G2">
-        <v>0.000793636372353699</v>
+        <v>0.2504249956188929</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003684319584040807</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2270929687840848</v>
       </c>
       <c r="K2">
-        <v>1.155745620854162</v>
+        <v>0.2019041727278008</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.058536495285608</v>
       </c>
       <c r="N2">
-        <v>0.6255993209243154</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.515226328229971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.6349262347290718</v>
+      </c>
+      <c r="Q2">
+        <v>0.9559064913382258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9424937735770982</v>
+        <v>0.7913677110247477</v>
       </c>
       <c r="C3">
-        <v>0.1483310215604092</v>
+        <v>0.2067254057422048</v>
       </c>
       <c r="D3">
-        <v>0.04557326088545466</v>
+        <v>0.06310472683905033</v>
       </c>
       <c r="E3">
-        <v>1.194007065443429</v>
+        <v>1.196060676018391</v>
       </c>
       <c r="F3">
-        <v>0.4908262399428835</v>
+        <v>0.334504611684217</v>
       </c>
       <c r="G3">
-        <v>0.000797663694321357</v>
+        <v>0.2372733018416326</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002462745003717792</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2256365584806446</v>
       </c>
       <c r="K3">
-        <v>1.004788457498933</v>
+        <v>0.2035830530250919</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9261228364680676</v>
       </c>
       <c r="N3">
-        <v>0.6648395471395312</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.443074760536206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.6579786893505712</v>
+      </c>
+      <c r="Q3">
+        <v>0.9246747245810951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8545645634525272</v>
+        <v>0.7191882112807662</v>
       </c>
       <c r="C4">
-        <v>0.1370778588742638</v>
+        <v>0.1924207459171328</v>
       </c>
       <c r="D4">
-        <v>0.04264792598036848</v>
+        <v>0.05804369750595129</v>
       </c>
       <c r="E4">
-        <v>1.076096286594819</v>
+        <v>1.079111144708207</v>
       </c>
       <c r="F4">
-        <v>0.4695603219768643</v>
+        <v>0.3215890722875514</v>
       </c>
       <c r="G4">
-        <v>0.0008002108474370884</v>
+        <v>0.2296179549745787</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001854108208840355</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2250273534976799</v>
       </c>
       <c r="K4">
-        <v>0.9123927478216558</v>
+        <v>0.2048588287285256</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8447665486362155</v>
       </c>
       <c r="N4">
-        <v>0.6899815593200875</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.402340687360748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.6728112983262626</v>
+      </c>
+      <c r="Q4">
+        <v>0.90697756490313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8188045212526447</v>
+        <v>0.6890545013588678</v>
       </c>
       <c r="C5">
-        <v>0.132492916686104</v>
+        <v>0.186993607443938</v>
       </c>
       <c r="D5">
-        <v>0.04145186290629255</v>
+        <v>0.05602802496026271</v>
       </c>
       <c r="E5">
-        <v>1.028486959679626</v>
+        <v>1.031816444717933</v>
       </c>
       <c r="F5">
-        <v>0.4611538458734543</v>
+        <v>0.3161668599702452</v>
       </c>
       <c r="G5">
-        <v>0.0008012680367970611</v>
+        <v>0.226329930719757</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001697256560986737</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2247096156474058</v>
       </c>
       <c r="K5">
-        <v>0.8747947261164484</v>
+        <v>0.2052174937840476</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8116274936874959</v>
       </c>
       <c r="N5">
-        <v>0.700483023554343</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.386582005612041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.6791085631524645</v>
+      </c>
+      <c r="Q5">
+        <v>0.8992611423836223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8128704043356834</v>
+        <v>0.6832706682697847</v>
       </c>
       <c r="C6">
-        <v>0.1317315721857852</v>
+        <v>0.1865465694182546</v>
       </c>
       <c r="D6">
-        <v>0.04125301558073602</v>
+        <v>0.05575103434649975</v>
       </c>
       <c r="E6">
-        <v>1.020605903492793</v>
+        <v>1.0239769098755</v>
       </c>
       <c r="F6">
-        <v>0.459773113013803</v>
+        <v>0.3149350779775801</v>
       </c>
       <c r="G6">
-        <v>0.0008014447562964492</v>
+        <v>0.2254629931249639</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001751446844282079</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.224491757505362</v>
       </c>
       <c r="K6">
-        <v>0.8685543154328457</v>
+        <v>0.2050114067752666</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8061674979951903</v>
       </c>
       <c r="N6">
-        <v>0.7022420212798097</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.384014489623581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.6802714258715277</v>
+      </c>
+      <c r="Q6">
+        <v>0.8969532956418931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8540820242020857</v>
+        <v>0.7166581826262757</v>
       </c>
       <c r="C7">
-        <v>0.1370160245229641</v>
+        <v>0.1935855540163942</v>
       </c>
       <c r="D7">
-        <v>0.04263181162420437</v>
+        <v>0.05817472530558376</v>
       </c>
       <c r="E7">
-        <v>1.07545252613042</v>
+        <v>1.078452517226609</v>
       </c>
       <c r="F7">
-        <v>0.4694459220299834</v>
+        <v>0.3205907792268263</v>
       </c>
       <c r="G7">
-        <v>0.0008002250266973257</v>
+        <v>0.2286801967463603</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00205105677794748</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2245610920807479</v>
       </c>
       <c r="K7">
-        <v>0.9118854941468442</v>
+        <v>0.2041286412315273</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8444407529900957</v>
       </c>
       <c r="N7">
-        <v>0.690122159532195</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.402124827822064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.6731985610328159</v>
+      </c>
+      <c r="Q7">
+        <v>0.9040114146867637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036620602092086</v>
+        <v>0.8652604786362019</v>
       </c>
       <c r="C8">
-        <v>0.1603487496770413</v>
+        <v>0.2237750494595474</v>
       </c>
       <c r="D8">
-        <v>0.04868156421363068</v>
+        <v>0.06871676259520854</v>
       </c>
       <c r="E8">
-        <v>1.321550603949362</v>
+        <v>1.322265693017641</v>
       </c>
       <c r="F8">
-        <v>0.5144579789784984</v>
+        <v>0.3474836407858604</v>
       </c>
       <c r="G8">
-        <v>0.0007950098731970784</v>
+        <v>0.2446158381050836</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003469600027693254</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2259209012886032</v>
       </c>
       <c r="K8">
-        <v>1.10362261226183</v>
+        <v>0.2014620171435197</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.013046632117323</v>
       </c>
       <c r="N8">
-        <v>0.638906982393993</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.489573131735995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.6431773372453762</v>
+      </c>
+      <c r="Q8">
+        <v>0.9410340587326544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.398368735696209</v>
+        <v>1.158042446697777</v>
       </c>
       <c r="C9">
-        <v>0.2063278077841488</v>
+        <v>0.2821855115657428</v>
       </c>
       <c r="D9">
-        <v>0.06042792821981635</v>
+        <v>0.08912306816308302</v>
       </c>
       <c r="E9">
-        <v>1.824359546649177</v>
+        <v>1.817221874561668</v>
       </c>
       <c r="F9">
-        <v>0.6123982719627463</v>
+        <v>0.4061832818719679</v>
       </c>
       <c r="G9">
-        <v>0.0007853484129969557</v>
+        <v>0.2811236015225163</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007190395525632276</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2318069223863191</v>
       </c>
       <c r="K9">
-        <v>1.482911382917649</v>
+        <v>0.1996012783301531</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.343457164767813</v>
       </c>
       <c r="N9">
-        <v>0.5471608867158377</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.692091934591986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.5892695002402313</v>
+      </c>
+      <c r="Q9">
+        <v>1.031464776018538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.667880540319942</v>
+        <v>1.370818468045371</v>
       </c>
       <c r="C10">
-        <v>0.2404339262681106</v>
+        <v>0.3269811811718029</v>
       </c>
       <c r="D10">
-        <v>0.06899506989018533</v>
+        <v>0.104239483783573</v>
       </c>
       <c r="E10">
-        <v>2.212109908889417</v>
+        <v>2.195912528457725</v>
       </c>
       <c r="F10">
-        <v>0.6916026359871807</v>
+        <v>0.4520080553348862</v>
       </c>
       <c r="G10">
-        <v>0.0007785576633293951</v>
+        <v>0.3102174480587507</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01094741232176943</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2375672354079938</v>
       </c>
       <c r="K10">
-        <v>1.765074451052527</v>
+        <v>0.1993037975308027</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.586915409706677</v>
       </c>
       <c r="N10">
-        <v>0.4855963042290254</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.863912773097638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.553572350159925</v>
+      </c>
+      <c r="Q10">
+        <v>1.105691433845095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.79165011129075</v>
+        <v>1.46380142923357</v>
       </c>
       <c r="C11">
-        <v>0.2560678752331</v>
+        <v>0.349840323168138</v>
       </c>
       <c r="D11">
-        <v>0.0728809323394799</v>
+        <v>0.1114023866123262</v>
       </c>
       <c r="E11">
-        <v>2.394026409087374</v>
+        <v>2.372602393605959</v>
       </c>
       <c r="F11">
-        <v>0.7295386899365326</v>
+        <v>0.4721477056403174</v>
       </c>
       <c r="G11">
-        <v>0.0007755260516367047</v>
+        <v>0.3226953824766952</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01321830557117298</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2398521391123154</v>
       </c>
       <c r="K11">
-        <v>1.894566487605914</v>
+        <v>0.1983419436548282</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.698164591336166</v>
       </c>
       <c r="N11">
-        <v>0.4589898004262709</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.948087239275992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.5389244705574328</v>
+      </c>
+      <c r="Q11">
+        <v>1.13714267541306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.838718101881767</v>
+        <v>1.500901123453872</v>
       </c>
       <c r="C12">
-        <v>0.2620095540327156</v>
+        <v>0.3574324741282453</v>
       </c>
       <c r="D12">
-        <v>0.07435094302059042</v>
+        <v>0.1139750025222099</v>
       </c>
       <c r="E12">
-        <v>2.463854859325508</v>
+        <v>2.440297448673078</v>
       </c>
       <c r="F12">
-        <v>0.7442083736106326</v>
+        <v>0.4807109116664918</v>
       </c>
       <c r="G12">
-        <v>0.0007743855021963486</v>
+        <v>0.3283108663069214</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01394895891185222</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2411773914730304</v>
       </c>
       <c r="K12">
-        <v>1.943798532922187</v>
+        <v>0.1986600160331236</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.740245594104209</v>
       </c>
       <c r="N12">
-        <v>0.4491281450785838</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.980919320842361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.5331431878571529</v>
+      </c>
+      <c r="Q12">
+        <v>1.151902541785148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.828571780452336</v>
+        <v>1.493297737996357</v>
       </c>
       <c r="C13">
-        <v>0.2607288791144668</v>
+        <v>0.3555673701779227</v>
       </c>
       <c r="D13">
-        <v>0.07403441319684845</v>
+        <v>0.1133919727648163</v>
       </c>
       <c r="E13">
-        <v>2.448771698281263</v>
+        <v>2.425689035088809</v>
       </c>
       <c r="F13">
-        <v>0.7410349594530459</v>
+        <v>0.4790233956571797</v>
       </c>
       <c r="G13">
-        <v>0.0007746308221568145</v>
+        <v>0.3272528144613887</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01375331195537388</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2409687879617053</v>
       </c>
       <c r="K13">
-        <v>1.933186242044883</v>
+        <v>0.1987149891393614</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.731159095280958</v>
       </c>
       <c r="N13">
-        <v>0.4512423179562437</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.973804212999823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.5343062916985915</v>
+      </c>
+      <c r="Q13">
+        <v>1.149205503582493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.795518242146414</v>
+        <v>1.467017801493625</v>
       </c>
       <c r="C14">
-        <v>0.2565562443669762</v>
+        <v>0.3503672065028951</v>
       </c>
       <c r="D14">
-        <v>0.07300189975692462</v>
+        <v>0.1116017345862161</v>
       </c>
       <c r="E14">
-        <v>2.399751485202103</v>
+        <v>2.378158566753228</v>
       </c>
       <c r="F14">
-        <v>0.7307392961730841</v>
+        <v>0.4729186319977856</v>
       </c>
       <c r="G14">
-        <v>0.0007754320734537488</v>
+        <v>0.3232215310665367</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0132618052688489</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2399937360225408</v>
       </c>
       <c r="K14">
-        <v>1.898612703850318</v>
+        <v>0.1984205064264444</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.701616528111003</v>
       </c>
       <c r="N14">
-        <v>0.4581741194073734</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.950768612830956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.5384140291944455</v>
+      </c>
+      <c r="Q14">
+        <v>1.138561224098169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.775298909412186</v>
+        <v>1.450159607252033</v>
       </c>
       <c r="C15">
-        <v>0.2540033147028566</v>
+        <v>0.3476372231317839</v>
       </c>
       <c r="D15">
-        <v>0.07236926737802918</v>
+        <v>0.1105622746451616</v>
       </c>
       <c r="E15">
-        <v>2.369852326900258</v>
+        <v>2.349134506306712</v>
       </c>
       <c r="F15">
-        <v>0.7244734518605753</v>
+        <v>0.468876343806393</v>
       </c>
       <c r="G15">
-        <v>0.0007759238084879832</v>
+        <v>0.3204592179364596</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01304202451250269</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2392479140170849</v>
       </c>
       <c r="K15">
-        <v>1.877462004744842</v>
+        <v>0.1979994213792224</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.683569897844052</v>
       </c>
       <c r="N15">
-        <v>0.4624482576972408</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.936786171456788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.5410958610214429</v>
+      </c>
+      <c r="Q15">
+        <v>1.131108758821284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.659818003572184</v>
+        <v>1.358360729187353</v>
       </c>
       <c r="C16">
-        <v>0.2394149639284109</v>
+        <v>0.3292462208287219</v>
       </c>
       <c r="D16">
-        <v>0.06874090368901165</v>
+        <v>0.1042482279220422</v>
       </c>
       <c r="E16">
-        <v>2.200344513844257</v>
+        <v>2.184366067663234</v>
       </c>
       <c r="F16">
-        <v>0.6891642819435049</v>
+        <v>0.4480116632035802</v>
       </c>
       <c r="G16">
-        <v>0.0007787568759271237</v>
+        <v>0.3068198712099814</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01139241406726299</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.236101851807291</v>
       </c>
       <c r="K16">
-        <v>1.756637426212507</v>
+        <v>0.1972783846901613</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.579999980565418</v>
       </c>
       <c r="N16">
-        <v>0.4873643000714298</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.858540465777764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.5557677180064893</v>
+      </c>
+      <c r="Q16">
+        <v>1.095405407339683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.589294518435253</v>
+        <v>1.302030286526985</v>
       </c>
       <c r="C17">
-        <v>0.2304988785423916</v>
+        <v>0.3180431373231158</v>
       </c>
       <c r="D17">
-        <v>0.06651221298121612</v>
+        <v>0.1003770980703749</v>
       </c>
       <c r="E17">
-        <v>2.097870764847315</v>
+        <v>2.084511410754459</v>
       </c>
       <c r="F17">
-        <v>0.6680118850427021</v>
+        <v>0.4354406901326584</v>
       </c>
       <c r="G17">
-        <v>0.0007805090497492111</v>
+        <v>0.2986527036236879</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01045160575914572</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2342854370300813</v>
       </c>
       <c r="K17">
-        <v>1.682828585657546</v>
+        <v>0.1969379485027964</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.516549160890719</v>
       </c>
       <c r="N17">
-        <v>0.5030164350290807</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.812142275982467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.5649870768784453</v>
+      </c>
+      <c r="Q17">
+        <v>1.074162830783479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.548839105719452</v>
+        <v>1.271545420490241</v>
       </c>
       <c r="C18">
-        <v>0.225381486821604</v>
+        <v>0.310488645171958</v>
       </c>
       <c r="D18">
-        <v>0.06522924852028211</v>
+        <v>0.0980071723497673</v>
       </c>
       <c r="E18">
-        <v>2.039441064884613</v>
+        <v>2.027520606088515</v>
       </c>
       <c r="F18">
-        <v>0.6560229922470739</v>
+        <v>0.4291058580212237</v>
       </c>
       <c r="G18">
-        <v>0.0007815223224566416</v>
+        <v>0.2948098840423796</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00971888016681266</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2336818491216235</v>
       </c>
       <c r="K18">
-        <v>1.640480327741557</v>
+        <v>0.1974109919902922</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.479975197343691</v>
       </c>
       <c r="N18">
-        <v>0.5121500578503357</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.786015147880164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.5700041295817257</v>
+      </c>
+      <c r="Q18">
+        <v>1.064679979899893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.535159212761585</v>
+        <v>1.25973890226129</v>
       </c>
       <c r="C19">
-        <v>0.2236505742343127</v>
+        <v>0.30881242263861</v>
       </c>
       <c r="D19">
-        <v>0.06479466872160344</v>
+        <v>0.09731598568484401</v>
       </c>
       <c r="E19">
-        <v>2.019741293795548</v>
+        <v>2.008270961839031</v>
       </c>
       <c r="F19">
-        <v>0.6519933558148949</v>
+        <v>0.4263454701602285</v>
       </c>
       <c r="G19">
-        <v>0.0007818663621381322</v>
+        <v>0.2929151459544386</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.009638564244971448</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2331750436726523</v>
       </c>
       <c r="K19">
-        <v>1.626158951353204</v>
+        <v>0.1970890418770423</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.467677914612921</v>
       </c>
       <c r="N19">
-        <v>0.5152646718740315</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.777262433014272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.5719971053961892</v>
+      </c>
+      <c r="Q19">
+        <v>1.059577175720733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.596790486583672</v>
+        <v>1.308178550412322</v>
       </c>
       <c r="C20">
-        <v>0.2314468525205484</v>
+        <v>0.3191434327770253</v>
       </c>
       <c r="D20">
-        <v>0.06674957166259077</v>
+        <v>0.1007777869711148</v>
       </c>
       <c r="E20">
-        <v>2.108725437103075</v>
+        <v>2.095099620357843</v>
       </c>
       <c r="F20">
-        <v>0.670245023570601</v>
+        <v>0.4368344853795989</v>
       </c>
       <c r="G20">
-        <v>0.0007803219675278727</v>
+        <v>0.2995763548131123</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01053190689751649</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2345060370027596</v>
       </c>
       <c r="K20">
-        <v>1.69067460424202</v>
+        <v>0.1970200210387105</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.523292377725539</v>
       </c>
       <c r="N20">
-        <v>0.5013366014343326</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.817022854240207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.5639685873695051</v>
+      </c>
+      <c r="Q20">
+        <v>1.076596258964202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.805221198588271</v>
+        <v>1.472575212347294</v>
       </c>
       <c r="C21">
-        <v>0.2577812293550892</v>
+        <v>0.3531690413571624</v>
       </c>
       <c r="D21">
-        <v>0.07330521288588443</v>
+        <v>0.1122892298733404</v>
       </c>
       <c r="E21">
-        <v>2.414123127958206</v>
+        <v>2.392062002083208</v>
       </c>
       <c r="F21">
-        <v>0.7337548744380342</v>
+        <v>0.4737963760299095</v>
       </c>
       <c r="G21">
-        <v>0.0007751965310836207</v>
+        <v>0.3235251940684805</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01362230656595464</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2398315078162483</v>
       </c>
       <c r="K21">
-        <v>1.908762184743694</v>
+        <v>0.1977998322969334</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.710409226338982</v>
       </c>
       <c r="N21">
-        <v>0.4561321787606325</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.957507972485786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.537630400049725</v>
+      </c>
+      <c r="Q21">
+        <v>1.138881680125365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.94262022605065</v>
+        <v>1.582742445110625</v>
       </c>
       <c r="C22">
-        <v>0.2751196283298043</v>
+        <v>0.3740732278043311</v>
       </c>
       <c r="D22">
-        <v>0.07758115117661646</v>
+        <v>0.1196166986859168</v>
       </c>
       <c r="E22">
-        <v>2.619282328032952</v>
+        <v>2.590664711981674</v>
       </c>
       <c r="F22">
-        <v>0.7770509420066105</v>
+        <v>0.4999079833440234</v>
       </c>
       <c r="G22">
-        <v>0.0007718897829704203</v>
+        <v>0.3409905000424516</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01560787168140187</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2442697769491673</v>
       </c>
       <c r="K22">
-        <v>2.052456559266574</v>
+        <v>0.1995551309058605</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.832889542823665</v>
       </c>
       <c r="N22">
-        <v>0.4278403368451498</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.054950928798178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5206143561428966</v>
+      </c>
+      <c r="Q22">
+        <v>1.185432864906517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.869168892071542</v>
+        <v>1.526553400162697</v>
       </c>
       <c r="C23">
-        <v>0.2658525779129519</v>
+        <v>0.3613505427106531</v>
       </c>
       <c r="D23">
-        <v>0.07529973065074813</v>
+        <v>0.1155098518566433</v>
       </c>
       <c r="E23">
-        <v>2.509222740254046</v>
+        <v>2.484261393011138</v>
       </c>
       <c r="F23">
-        <v>0.7537686568738735</v>
+        <v>0.4869942950090831</v>
       </c>
       <c r="G23">
-        <v>0.0007736510117818088</v>
+        <v>0.3326593187877194</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01428011286217767</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2424024109182454</v>
       </c>
       <c r="K23">
-        <v>1.975646078118103</v>
+        <v>0.1994363052581924</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.767343228163071</v>
       </c>
       <c r="N23">
-        <v>0.4428212985643616</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.002395936887524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.5291103644851276</v>
+      </c>
+      <c r="Q23">
+        <v>1.163737897213053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.593401283006017</v>
+        <v>1.309475385966522</v>
       </c>
       <c r="C24">
-        <v>0.2310182470680502</v>
+        <v>0.3162410836698086</v>
       </c>
       <c r="D24">
-        <v>0.06664226698622144</v>
+        <v>0.1002916208083633</v>
       </c>
       <c r="E24">
-        <v>2.103816543561237</v>
+        <v>2.090372131593611</v>
       </c>
       <c r="F24">
-        <v>0.669234888447491</v>
+        <v>0.4379311538146027</v>
       </c>
       <c r="G24">
-        <v>0.0007804065289024955</v>
+        <v>0.3008210397607485</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01007780404238812</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2352549495772962</v>
       </c>
       <c r="K24">
-        <v>1.687127155609375</v>
+        <v>0.1983240863629945</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.520019972274184</v>
       </c>
       <c r="N24">
-        <v>0.5020956346267806</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.814814645389873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.5636549432158837</v>
+      </c>
+      <c r="Q24">
+        <v>1.080797585996748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.299960542379864</v>
+        <v>1.07514851145649</v>
       </c>
       <c r="C25">
-        <v>0.1938469138983265</v>
+        <v>0.2684945995541455</v>
       </c>
       <c r="D25">
-        <v>0.05726193136882785</v>
+        <v>0.08389055216941443</v>
       </c>
       <c r="E25">
-        <v>1.685590873949991</v>
+        <v>1.681004501369316</v>
       </c>
       <c r="F25">
-        <v>0.5847343975629826</v>
+        <v>0.3881124653531174</v>
       </c>
       <c r="G25">
-        <v>0.0007879052190755108</v>
+        <v>0.2691909727453776</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006381250103688174</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2291099156221534</v>
       </c>
       <c r="K25">
-        <v>1.379804884225734</v>
+        <v>0.1985535201876267</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.254227792598272</v>
       </c>
       <c r="N25">
-        <v>0.5709969227974847</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.633578868318807</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6039137104438268</v>
+      </c>
+      <c r="Q25">
+        <v>1.000333933379125</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9083802726520389</v>
+        <v>0.8796286594223375</v>
       </c>
       <c r="C2">
-        <v>0.2302728960897156</v>
+        <v>0.2413457761321638</v>
       </c>
       <c r="D2">
-        <v>0.07134751822604812</v>
+        <v>0.07373959805121899</v>
       </c>
       <c r="E2">
-        <v>1.389332916401443</v>
+        <v>1.388565144647899</v>
       </c>
       <c r="F2">
-        <v>0.3563492789031955</v>
+        <v>0.344334653342429</v>
       </c>
       <c r="G2">
-        <v>0.2504249956188929</v>
+        <v>0.2217098904182322</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003684319584040807</v>
+        <v>0.00377231418981161</v>
       </c>
       <c r="J2">
-        <v>0.2270929687840848</v>
+        <v>0.2621696299570146</v>
       </c>
       <c r="K2">
-        <v>0.2019041727278008</v>
+        <v>0.1906018101243809</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1221427334169896</v>
       </c>
       <c r="M2">
-        <v>1.058536495285608</v>
+        <v>0.0362568275207078</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.057977538633907</v>
       </c>
       <c r="P2">
-        <v>0.6349262347290718</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9559064913382258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.6395573948561619</v>
+      </c>
+      <c r="S2">
+        <v>0.9201163244737813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7913677110247477</v>
+        <v>0.7703575608408357</v>
       </c>
       <c r="C3">
-        <v>0.2067254057422048</v>
+        <v>0.2128823680244949</v>
       </c>
       <c r="D3">
-        <v>0.06310472683905033</v>
+        <v>0.06487273317132747</v>
       </c>
       <c r="E3">
-        <v>1.196060676018391</v>
+        <v>1.195715343449862</v>
       </c>
       <c r="F3">
-        <v>0.334504611684217</v>
+        <v>0.3249091438589318</v>
       </c>
       <c r="G3">
-        <v>0.2372733018416326</v>
+        <v>0.2106870313548441</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002462745003717792</v>
+        <v>0.002661462940191761</v>
       </c>
       <c r="J3">
-        <v>0.2256365584806446</v>
+        <v>0.2600472567339835</v>
       </c>
       <c r="K3">
-        <v>0.2035830530250919</v>
+        <v>0.1934353394834751</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1269774495583214</v>
       </c>
       <c r="M3">
-        <v>0.9261228364680676</v>
+        <v>0.03462739524008107</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9258165811250763</v>
       </c>
       <c r="P3">
-        <v>0.6579786893505712</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9246747245810951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.6590973024019284</v>
+      </c>
+      <c r="S3">
+        <v>0.8954906593238405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7191882112807662</v>
+        <v>0.7027683930891158</v>
       </c>
       <c r="C4">
-        <v>0.1924207459171328</v>
+        <v>0.1956733877866554</v>
       </c>
       <c r="D4">
-        <v>0.05804369750595129</v>
+        <v>0.05943891477627972</v>
       </c>
       <c r="E4">
-        <v>1.079111144708207</v>
+        <v>1.078975317290428</v>
       </c>
       <c r="F4">
-        <v>0.3215890722875514</v>
+        <v>0.3133823313553492</v>
       </c>
       <c r="G4">
-        <v>0.2296179549745787</v>
+        <v>0.204336335154423</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001854108208840355</v>
+        <v>0.002099186734833225</v>
       </c>
       <c r="J4">
-        <v>0.2250273534976799</v>
+        <v>0.2588654918114912</v>
       </c>
       <c r="K4">
-        <v>0.2048588287285256</v>
+        <v>0.1953479276076688</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1300856588672801</v>
       </c>
       <c r="M4">
-        <v>0.8447665486362155</v>
+        <v>0.03412358396382853</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8445901564274436</v>
       </c>
       <c r="P4">
-        <v>0.6728112983262626</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.90697756490313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.6717868419762709</v>
+      </c>
+      <c r="S4">
+        <v>0.8815442090043462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6890545013588678</v>
+        <v>0.6744699691249423</v>
       </c>
       <c r="C5">
-        <v>0.186993607443938</v>
+        <v>0.189112842285283</v>
       </c>
       <c r="D5">
-        <v>0.05602802496026271</v>
+        <v>0.0572748493830133</v>
       </c>
       <c r="E5">
-        <v>1.031816444717933</v>
+        <v>1.03175556976106</v>
       </c>
       <c r="F5">
-        <v>0.3161668599702452</v>
+        <v>0.3085049766867627</v>
       </c>
       <c r="G5">
-        <v>0.226329930719757</v>
+        <v>0.2015861532087371</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001697256560986737</v>
+        <v>0.001968931272962493</v>
       </c>
       <c r="J5">
-        <v>0.2247096156474058</v>
+        <v>0.2582701646608285</v>
       </c>
       <c r="K5">
-        <v>0.2052174937840476</v>
+        <v>0.1959571427547679</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1312695381947684</v>
       </c>
       <c r="M5">
-        <v>0.8116274936874959</v>
+        <v>0.03399791569896848</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8114999034388006</v>
       </c>
       <c r="P5">
-        <v>0.6791085631524645</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8992611423836223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.6772291395874888</v>
+      </c>
+      <c r="S5">
+        <v>0.8752941078204088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6832706682697847</v>
+        <v>0.6689939524815145</v>
       </c>
       <c r="C6">
-        <v>0.1865465694182546</v>
+        <v>0.1885066691615265</v>
       </c>
       <c r="D6">
-        <v>0.05575103434649975</v>
+        <v>0.05697451817579235</v>
       </c>
       <c r="E6">
-        <v>1.0239769098755</v>
+        <v>1.023928104674937</v>
       </c>
       <c r="F6">
-        <v>0.3149350779775801</v>
+        <v>0.3073651653393696</v>
       </c>
       <c r="G6">
-        <v>0.2254629931249639</v>
+        <v>0.2008176267744659</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001751446844282079</v>
+        <v>0.002044320830173696</v>
       </c>
       <c r="J6">
-        <v>0.224491757505362</v>
+        <v>0.2579980905670496</v>
       </c>
       <c r="K6">
-        <v>0.2050114067752666</v>
+        <v>0.1958023420507136</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1313249547128734</v>
       </c>
       <c r="M6">
-        <v>0.8061674979951903</v>
+        <v>0.03393021903673343</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8060490211183122</v>
       </c>
       <c r="P6">
-        <v>0.6802714258715277</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8969532956418931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.6782683990319924</v>
+      </c>
+      <c r="S6">
+        <v>0.8732400636630189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7166581826262757</v>
+        <v>0.6999336467474677</v>
       </c>
       <c r="C7">
-        <v>0.1935855540163942</v>
+        <v>0.1966148641097192</v>
       </c>
       <c r="D7">
-        <v>0.05817472530558376</v>
+        <v>0.05967770996190325</v>
       </c>
       <c r="E7">
-        <v>1.078452517226609</v>
+        <v>1.078302821437063</v>
       </c>
       <c r="F7">
-        <v>0.3205907792268263</v>
+        <v>0.3118154465643173</v>
       </c>
       <c r="G7">
-        <v>0.2286801967463603</v>
+        <v>0.2058037796546373</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00205105677794748</v>
+        <v>0.002337776007085068</v>
       </c>
       <c r="J7">
-        <v>0.2245610920807479</v>
+        <v>0.2549732404295213</v>
       </c>
       <c r="K7">
-        <v>0.2041286412315273</v>
+        <v>0.194414154443697</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1295944320328317</v>
       </c>
       <c r="M7">
-        <v>0.8444407529900957</v>
+        <v>0.03390792202246828</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8435616987210039</v>
       </c>
       <c r="P7">
-        <v>0.6731985610328159</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9040114146867637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.6723908824513529</v>
+      </c>
+      <c r="S7">
+        <v>0.8768571688925562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8652604786362019</v>
+        <v>0.8380831010358065</v>
       </c>
       <c r="C8">
-        <v>0.2237750494595474</v>
+        <v>0.2322814036376428</v>
       </c>
       <c r="D8">
-        <v>0.06871676259520854</v>
+        <v>0.07125566061411348</v>
       </c>
       <c r="E8">
-        <v>1.322265693017641</v>
+        <v>1.321596734990209</v>
       </c>
       <c r="F8">
-        <v>0.3474836407858604</v>
+        <v>0.3343968438200378</v>
       </c>
       <c r="G8">
-        <v>0.2446158381050836</v>
+        <v>0.224633136633571</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.003469600027693254</v>
+        <v>0.003644209720936153</v>
       </c>
       <c r="J8">
-        <v>0.2259209012886032</v>
+        <v>0.2497050100826925</v>
       </c>
       <c r="K8">
-        <v>0.2014620171435197</v>
+        <v>0.1898460232776138</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1229613205583782</v>
       </c>
       <c r="M8">
-        <v>1.013046632117323</v>
+        <v>0.03511269783989768</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.010212753603923</v>
       </c>
       <c r="P8">
-        <v>0.6431773372453762</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9410340587326544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.6473299705416906</v>
+      </c>
+      <c r="S8">
+        <v>0.9017545604906019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.158042446697777</v>
+        <v>1.110217839683031</v>
       </c>
       <c r="C9">
-        <v>0.2821855115657428</v>
+        <v>0.3032411272160687</v>
       </c>
       <c r="D9">
-        <v>0.08912306816308302</v>
+        <v>0.09338209414972454</v>
       </c>
       <c r="E9">
-        <v>1.817221874561668</v>
+        <v>1.815086023904882</v>
       </c>
       <c r="F9">
-        <v>0.4061832818719679</v>
+        <v>0.3859252266502224</v>
       </c>
       <c r="G9">
-        <v>0.2811236015225163</v>
+        <v>0.2580503632884472</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.007190395525632276</v>
+        <v>0.006889413266606859</v>
       </c>
       <c r="J9">
-        <v>0.2318069223863191</v>
+        <v>0.2532275558066885</v>
       </c>
       <c r="K9">
-        <v>0.1996012783301531</v>
+        <v>0.1844473141587812</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1121168701602695</v>
       </c>
       <c r="M9">
-        <v>1.343457164767813</v>
+        <v>0.04202975727390346</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.339087882798765</v>
       </c>
       <c r="P9">
-        <v>0.5892695002402313</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.031464776018538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.6024838798334144</v>
+      </c>
+      <c r="S9">
+        <v>0.9721968329305923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.370818468045371</v>
+        <v>1.304819091006152</v>
       </c>
       <c r="C10">
-        <v>0.3269811811718029</v>
+        <v>0.3561598572243554</v>
       </c>
       <c r="D10">
-        <v>0.104239483783573</v>
+        <v>0.1104752613901354</v>
       </c>
       <c r="E10">
-        <v>2.195912528457725</v>
+        <v>2.192076014063488</v>
       </c>
       <c r="F10">
-        <v>0.4520080553348862</v>
+        <v>0.4224858091901993</v>
       </c>
       <c r="G10">
-        <v>0.3102174480587507</v>
+        <v>0.2994495944897295</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01094741232176943</v>
+        <v>0.01013989886298283</v>
       </c>
       <c r="J10">
-        <v>0.2375672354079938</v>
+        <v>0.2380337445217009</v>
       </c>
       <c r="K10">
-        <v>0.1993037975308027</v>
+        <v>0.1798529976994026</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.104264607059303</v>
       </c>
       <c r="M10">
-        <v>1.586915409706677</v>
+        <v>0.0489459488170958</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.576874411577165</v>
       </c>
       <c r="P10">
-        <v>0.553572350159925</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.105691433845095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.5749580841112021</v>
+      </c>
+      <c r="S10">
+        <v>1.019634756307894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.46380142923357</v>
+        <v>1.385658856261955</v>
       </c>
       <c r="C11">
-        <v>0.349840323168138</v>
+        <v>0.3798763853116611</v>
       </c>
       <c r="D11">
-        <v>0.1114023866123262</v>
+        <v>0.1197451731482602</v>
       </c>
       <c r="E11">
-        <v>2.372602393605959</v>
+        <v>2.367562236477511</v>
       </c>
       <c r="F11">
-        <v>0.4721477056403174</v>
+        <v>0.4322492787792527</v>
       </c>
       <c r="G11">
-        <v>0.3226953824766952</v>
+        <v>0.3446268307039446</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01321830557117298</v>
+        <v>0.01216674183754751</v>
       </c>
       <c r="J11">
-        <v>0.2398521391123154</v>
+        <v>0.2029848070606235</v>
       </c>
       <c r="K11">
-        <v>0.1983419436548282</v>
+        <v>0.1746578171401367</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09977130742392859</v>
       </c>
       <c r="M11">
-        <v>1.698164591336166</v>
+        <v>0.05116415854358891</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.677825915006281</v>
       </c>
       <c r="P11">
-        <v>0.5389244705574328</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.13714267541306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.5669266456859958</v>
+      </c>
+      <c r="S11">
+        <v>1.020466117765778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.500901123453872</v>
+        <v>1.417597845491201</v>
       </c>
       <c r="C12">
-        <v>0.3574324741282453</v>
+        <v>0.3873077514643342</v>
       </c>
       <c r="D12">
-        <v>0.1139750025222099</v>
+        <v>0.1232717759976509</v>
       </c>
       <c r="E12">
-        <v>2.440297448673078</v>
+        <v>2.434734068556125</v>
       </c>
       <c r="F12">
-        <v>0.4807109116664918</v>
+        <v>0.4360542043281654</v>
       </c>
       <c r="G12">
-        <v>0.3283108663069214</v>
+        <v>0.366752564465159</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01394895891185222</v>
+        <v>0.01274640598302579</v>
       </c>
       <c r="J12">
-        <v>0.2411773914730304</v>
+        <v>0.1884726679598288</v>
       </c>
       <c r="K12">
-        <v>0.1986600160331236</v>
+        <v>0.1730087751912208</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09822295870431574</v>
       </c>
       <c r="M12">
-        <v>1.740245594104209</v>
+        <v>0.05217056682004539</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.714997475291966</v>
       </c>
       <c r="P12">
-        <v>0.5331431878571529</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.151902541785148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.5639566218432179</v>
+      </c>
+      <c r="S12">
+        <v>1.021129567408167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.493297737996357</v>
+        <v>1.411120364561981</v>
       </c>
       <c r="C13">
-        <v>0.3555673701779227</v>
+        <v>0.3854758777769689</v>
       </c>
       <c r="D13">
-        <v>0.1133919727648163</v>
+        <v>0.1224744129827684</v>
       </c>
       <c r="E13">
-        <v>2.425689035088809</v>
+        <v>2.420241035100133</v>
       </c>
       <c r="F13">
-        <v>0.4790233956571797</v>
+        <v>0.4354203545519653</v>
       </c>
       <c r="G13">
-        <v>0.3272528144613887</v>
+        <v>0.3619496257991841</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01375331195537388</v>
+        <v>0.01257429791076259</v>
       </c>
       <c r="J13">
-        <v>0.2409687879617053</v>
+        <v>0.1916847517031144</v>
       </c>
       <c r="K13">
-        <v>0.1987149891393614</v>
+        <v>0.1734858980372742</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09859488729520471</v>
       </c>
       <c r="M13">
-        <v>1.731159095280958</v>
+        <v>0.05200523219832576</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.707013620151827</v>
       </c>
       <c r="P13">
-        <v>0.5343062916985915</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.149205503582493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.5644707987734918</v>
+      </c>
+      <c r="S13">
+        <v>1.021543280938317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.467017801493625</v>
+        <v>1.388457487540848</v>
       </c>
       <c r="C14">
-        <v>0.3503672065028951</v>
+        <v>0.3803896988981137</v>
       </c>
       <c r="D14">
-        <v>0.1116017345862161</v>
+        <v>0.1200191038130498</v>
       </c>
       <c r="E14">
-        <v>2.378158566753228</v>
+        <v>2.373076583157328</v>
       </c>
       <c r="F14">
-        <v>0.4729186319977856</v>
+        <v>0.4326421000169631</v>
       </c>
       <c r="G14">
-        <v>0.3232215310665367</v>
+        <v>0.346426310671788</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0132618052688489</v>
+        <v>0.01219397685315649</v>
       </c>
       <c r="J14">
-        <v>0.2399937360225408</v>
+        <v>0.2018338407896678</v>
       </c>
       <c r="K14">
-        <v>0.1984205064264444</v>
+        <v>0.1745745293028023</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09966065297350468</v>
       </c>
       <c r="M14">
-        <v>1.701616528111003</v>
+        <v>0.05126874913668189</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.680894266282507</v>
       </c>
       <c r="P14">
-        <v>0.5384140291944455</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.138561224098169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.5666291474578102</v>
+      </c>
+      <c r="S14">
+        <v>1.020760291263286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.450159607252033</v>
+        <v>1.373762965513123</v>
       </c>
       <c r="C15">
-        <v>0.3476372231317839</v>
+        <v>0.3777173723838132</v>
       </c>
       <c r="D15">
-        <v>0.1105622746451616</v>
+        <v>0.1185963096493907</v>
       </c>
       <c r="E15">
-        <v>2.349134506306712</v>
+        <v>2.344268555938939</v>
       </c>
       <c r="F15">
-        <v>0.468876343806393</v>
+        <v>0.4305444166677788</v>
       </c>
       <c r="G15">
-        <v>0.3204592179364596</v>
+        <v>0.3371800433539249</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01304202451250269</v>
+        <v>0.0120600731798497</v>
       </c>
       <c r="J15">
-        <v>0.2392479140170849</v>
+        <v>0.2077911147707709</v>
       </c>
       <c r="K15">
-        <v>0.1979994213792224</v>
+        <v>0.1749881696620434</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1002329030521523</v>
       </c>
       <c r="M15">
-        <v>1.683569897844052</v>
+        <v>0.05071456604800062</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.664812475947116</v>
       </c>
       <c r="P15">
-        <v>0.5410958610214429</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.131108758821284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.568215129984722</v>
+      </c>
+      <c r="S15">
+        <v>1.019091022480978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.358360729187353</v>
+        <v>1.293216974053848</v>
       </c>
       <c r="C16">
-        <v>0.3292462208287219</v>
+        <v>0.3586546663428294</v>
       </c>
       <c r="D16">
-        <v>0.1042482279220422</v>
+        <v>0.1103852796263283</v>
       </c>
       <c r="E16">
-        <v>2.184366067663234</v>
+        <v>2.180604349821706</v>
       </c>
       <c r="F16">
-        <v>0.4480116632035802</v>
+        <v>0.4191474176997687</v>
       </c>
       <c r="G16">
-        <v>0.3068198712099814</v>
+        <v>0.294431987330654</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01139241406726299</v>
+        <v>0.01075141105388688</v>
       </c>
       <c r="J16">
-        <v>0.236101851807291</v>
+        <v>0.2388422175174014</v>
       </c>
       <c r="K16">
-        <v>0.1972783846901613</v>
+        <v>0.1782648411011643</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1038800557700821</v>
       </c>
       <c r="M16">
-        <v>1.579999980565418</v>
+        <v>0.04801615914897539</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.570508488822355</v>
       </c>
       <c r="P16">
-        <v>0.5557677180064893</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.095405407339683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.5770902302273342</v>
+      </c>
+      <c r="S16">
+        <v>1.011415090998611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.302030286526985</v>
+        <v>1.24290685392873</v>
       </c>
       <c r="C17">
-        <v>0.3180431373231158</v>
+        <v>0.3463807133141046</v>
       </c>
       <c r="D17">
-        <v>0.1003770980703749</v>
+        <v>0.1056169319082443</v>
       </c>
       <c r="E17">
-        <v>2.084511410754459</v>
+        <v>2.08131888509142</v>
       </c>
       <c r="F17">
-        <v>0.4354406901326584</v>
+        <v>0.4110187309974265</v>
       </c>
       <c r="G17">
-        <v>0.2986527036236879</v>
+        <v>0.2747316327935323</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01045160575914572</v>
+        <v>0.009996073796503246</v>
       </c>
       <c r="J17">
-        <v>0.2342854370300813</v>
+        <v>0.253089225779263</v>
       </c>
       <c r="K17">
-        <v>0.1969379485027964</v>
+        <v>0.1798512123560521</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1060174639290139</v>
       </c>
       <c r="M17">
-        <v>1.516549160890719</v>
+        <v>0.04627182051442169</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.511041429713657</v>
       </c>
       <c r="P17">
-        <v>0.5649870768784453</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.074162830783479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.5833804674731411</v>
+      </c>
+      <c r="S17">
+        <v>1.003279056184709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.271545420490241</v>
+        <v>1.215540202902503</v>
       </c>
       <c r="C18">
-        <v>0.310488645171958</v>
+        <v>0.3378735091835665</v>
       </c>
       <c r="D18">
-        <v>0.0980071723497673</v>
+        <v>0.1028183961673932</v>
       </c>
       <c r="E18">
-        <v>2.027520606088515</v>
+        <v>2.024617755144078</v>
       </c>
       <c r="F18">
-        <v>0.4291058580212237</v>
+        <v>0.406737716025674</v>
       </c>
       <c r="G18">
-        <v>0.2948098840423796</v>
+        <v>0.2662926097668006</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.00971888016681266</v>
+        <v>0.009308445092177209</v>
       </c>
       <c r="J18">
-        <v>0.2336818491216235</v>
+        <v>0.2594950535149323</v>
       </c>
       <c r="K18">
-        <v>0.1974109919902922</v>
+        <v>0.181192463264626</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1074217810328069</v>
       </c>
       <c r="M18">
-        <v>1.479975197343691</v>
+        <v>0.04547069634311462</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.476159952651614</v>
       </c>
       <c r="P18">
-        <v>0.5700041295817257</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.064679979899893</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.5868374321076182</v>
+      </c>
+      <c r="S18">
+        <v>0.9997974274380681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.25973890226129</v>
+        <v>1.204765917770914</v>
       </c>
       <c r="C19">
-        <v>0.30881242263861</v>
+        <v>0.3359165309367853</v>
       </c>
       <c r="D19">
-        <v>0.09731598568484401</v>
+        <v>0.1020007805196599</v>
       </c>
       <c r="E19">
-        <v>2.008270961839031</v>
+        <v>2.005461338302567</v>
       </c>
       <c r="F19">
-        <v>0.4263454701602285</v>
+        <v>0.4046089718518999</v>
       </c>
       <c r="G19">
-        <v>0.2929151459544386</v>
+        <v>0.2631915823645556</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.009638564244971448</v>
+        <v>0.009282591440079813</v>
       </c>
       <c r="J19">
-        <v>0.2331750436726523</v>
+        <v>0.260968285937814</v>
       </c>
       <c r="K19">
-        <v>0.1970890418770423</v>
+        <v>0.1811744787133591</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.107723948251909</v>
       </c>
       <c r="M19">
-        <v>1.467677914612921</v>
+        <v>0.04502041755340613</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.464339685098736</v>
       </c>
       <c r="P19">
-        <v>0.5719971053961892</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.059577175720733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.5884000637563069</v>
+      </c>
+      <c r="S19">
+        <v>0.9965580467948314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.308178550412322</v>
+        <v>1.248443614270911</v>
       </c>
       <c r="C20">
-        <v>0.3191434327770253</v>
+        <v>0.3476111145367327</v>
       </c>
       <c r="D20">
-        <v>0.1007777869711148</v>
+        <v>0.1061031136746493</v>
       </c>
       <c r="E20">
-        <v>2.095099620357843</v>
+        <v>2.091850240975688</v>
       </c>
       <c r="F20">
-        <v>0.4368344853795989</v>
+        <v>0.4119880414362669</v>
       </c>
       <c r="G20">
-        <v>0.2995763548131123</v>
+        <v>0.2766631982333294</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01053190689751649</v>
+        <v>0.01005322138102649</v>
       </c>
       <c r="J20">
-        <v>0.2345060370027596</v>
+        <v>0.2518202996552787</v>
       </c>
       <c r="K20">
-        <v>0.1970200210387105</v>
+        <v>0.1797432672161747</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1058105993933118</v>
       </c>
       <c r="M20">
-        <v>1.523292377725539</v>
+        <v>0.04647829290468231</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.517422534821009</v>
       </c>
       <c r="P20">
-        <v>0.5639685873695051</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.076596258964202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.5826449793622288</v>
+      </c>
+      <c r="S20">
+        <v>1.004460092060341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.472575212347294</v>
+        <v>1.391708064816612</v>
       </c>
       <c r="C21">
-        <v>0.3531690413571624</v>
+        <v>0.382163522284003</v>
       </c>
       <c r="D21">
-        <v>0.1122892298733404</v>
+        <v>0.1213238033671473</v>
       </c>
       <c r="E21">
-        <v>2.392062002083208</v>
+        <v>2.386783482771918</v>
       </c>
       <c r="F21">
-        <v>0.4737963760299095</v>
+        <v>0.4304702800670839</v>
       </c>
       <c r="G21">
-        <v>0.3235251940684805</v>
+        <v>0.3598039894084479</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01362230656595464</v>
+        <v>0.01255935179267009</v>
       </c>
       <c r="J21">
-        <v>0.2398315078162483</v>
+        <v>0.1899039086817496</v>
       </c>
       <c r="K21">
-        <v>0.1977998322969334</v>
+        <v>0.1728267989079413</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09887003630175073</v>
       </c>
       <c r="M21">
-        <v>1.710409226338982</v>
+        <v>0.05086786882401384</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.68603012314594</v>
       </c>
       <c r="P21">
-        <v>0.537630400049725</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.138881680125365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.5674880120576944</v>
+      </c>
+      <c r="S21">
+        <v>1.01202544674851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.582742445110625</v>
+        <v>1.487096921239868</v>
       </c>
       <c r="C22">
-        <v>0.3740732278043311</v>
+        <v>0.4028707716306599</v>
       </c>
       <c r="D22">
-        <v>0.1196166986859168</v>
+        <v>0.1313220417698489</v>
       </c>
       <c r="E22">
-        <v>2.590664711981674</v>
+        <v>2.583825382766165</v>
       </c>
       <c r="F22">
-        <v>0.4999079833440234</v>
+        <v>0.4432807263473109</v>
       </c>
       <c r="G22">
-        <v>0.3409905000424516</v>
+        <v>0.4243936148681087</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01560787168140187</v>
+        <v>0.01404041011499313</v>
       </c>
       <c r="J22">
-        <v>0.2442697769491673</v>
+        <v>0.1564521244883643</v>
       </c>
       <c r="K22">
-        <v>0.1995551309058605</v>
+        <v>0.1690071119049463</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09477517696175219</v>
       </c>
       <c r="M22">
-        <v>1.832889542823665</v>
+        <v>0.05427827380065153</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.794952046543102</v>
       </c>
       <c r="P22">
-        <v>0.5206143561428966</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.185432864906517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.5584033767043337</v>
+      </c>
+      <c r="S22">
+        <v>1.019210178153088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.526553400162697</v>
+        <v>1.439724510963345</v>
       </c>
       <c r="C23">
-        <v>0.3613505427106531</v>
+        <v>0.3909327090669308</v>
       </c>
       <c r="D23">
-        <v>0.1155098518566433</v>
+        <v>0.1254631744888712</v>
       </c>
       <c r="E23">
-        <v>2.484261393011138</v>
+        <v>2.478339520786676</v>
       </c>
       <c r="F23">
-        <v>0.4869942950090831</v>
+        <v>0.4389998643840372</v>
       </c>
       <c r="G23">
-        <v>0.3326593187877194</v>
+        <v>0.3831033205151044</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01428011286217767</v>
+        <v>0.01293512725050316</v>
       </c>
       <c r="J23">
-        <v>0.2424024109182454</v>
+        <v>0.1791694103590373</v>
       </c>
       <c r="K23">
-        <v>0.1994363052581924</v>
+        <v>0.1723587437090011</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09736936770661941</v>
       </c>
       <c r="M23">
-        <v>1.767343228163071</v>
+        <v>0.05301278814549448</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.738634099980629</v>
       </c>
       <c r="P23">
-        <v>0.5291103644851276</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.163737897213053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.5617467239490708</v>
+      </c>
+      <c r="S23">
+        <v>1.023028527530869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.309475385966522</v>
+        <v>1.249938776464091</v>
       </c>
       <c r="C24">
-        <v>0.3162410836698086</v>
+        <v>0.3444302299408122</v>
       </c>
       <c r="D24">
-        <v>0.1002916208083633</v>
+        <v>0.1055680218195363</v>
       </c>
       <c r="E24">
-        <v>2.090372131593611</v>
+        <v>2.087145625554967</v>
       </c>
       <c r="F24">
-        <v>0.4379311538146027</v>
+        <v>0.4132294668232674</v>
       </c>
       <c r="G24">
-        <v>0.3008210397607485</v>
+        <v>0.2774123776257014</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01007780404238812</v>
+        <v>0.009504406464199811</v>
       </c>
       <c r="J24">
-        <v>0.2352549495772962</v>
+        <v>0.253194724077801</v>
       </c>
       <c r="K24">
-        <v>0.1983240863629945</v>
+        <v>0.1810155517494394</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1063514361042106</v>
       </c>
       <c r="M24">
-        <v>1.520019972274184</v>
+        <v>0.0468726172684768</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.514307274525152</v>
       </c>
       <c r="P24">
-        <v>0.5636549432158837</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.080797585996748</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.5820184986299175</v>
+      </c>
+      <c r="S24">
+        <v>1.009016907447119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.07514851145649</v>
+        <v>1.033631959249874</v>
       </c>
       <c r="C25">
-        <v>0.2684945995541455</v>
+        <v>0.28666979059048</v>
       </c>
       <c r="D25">
-        <v>0.08389055216941443</v>
+        <v>0.08752694653784232</v>
       </c>
       <c r="E25">
-        <v>1.681004501369316</v>
+        <v>1.679367447774695</v>
       </c>
       <c r="F25">
-        <v>0.3881124653531174</v>
+        <v>0.3707619520637451</v>
       </c>
       <c r="G25">
-        <v>0.2691909727453776</v>
+        <v>0.2435356511318574</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.006381250103688174</v>
+        <v>0.006325263998447461</v>
       </c>
       <c r="J25">
-        <v>0.2291099156221534</v>
+        <v>0.2560188109988957</v>
       </c>
       <c r="K25">
-        <v>0.1985535201876267</v>
+        <v>0.1848516292876567</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.114561448081874</v>
       </c>
       <c r="M25">
-        <v>1.254227792598272</v>
+        <v>0.03941402632921154</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.251349479861972</v>
       </c>
       <c r="P25">
-        <v>0.6039137104438268</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.000333933379125</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6145121257619657</v>
+      </c>
+      <c r="S25">
+        <v>0.9494718149394146</v>
       </c>
     </row>
   </sheetData>
